--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gkid-my.sharepoint.com/personal/jason_wong_trainocate_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{FCCE7E95-706C-472E-80BB-214B6E5307FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{876C7607-E4F2-4A47-9D32-193AFFE9DD9D}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="8_{FCCE7E95-706C-472E-80BB-214B6E5307FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A5501E-57C3-4F0B-948A-867871F911BF}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="96" windowWidth="14508" windowHeight="10908" firstSheet="3" activeTab="7" xr2:uid="{0A7A325A-D5D9-45C8-A104-2F0C1C36DB53}"/>
+    <workbookView xWindow="28830" yWindow="15" windowWidth="14505" windowHeight="10905" firstSheet="4" activeTab="7" xr2:uid="{0A7A325A-D5D9-45C8-A104-2F0C1C36DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="196">
   <si>
     <t>2^7</t>
   </si>
@@ -667,9 +667,6 @@
     <t>g0/1</t>
   </si>
   <si>
-    <t>g0/2</t>
-  </si>
-  <si>
     <t>operation</t>
   </si>
   <si>
@@ -733,18 +730,6 @@
     <t>10.0.0.208/28</t>
   </si>
   <si>
-    <t>10.0.0.208</t>
-  </si>
-  <si>
-    <t>10.0.0.223</t>
-  </si>
-  <si>
-    <t>10.0.0.209</t>
-  </si>
-  <si>
-    <t>10.0.0.222</t>
-  </si>
-  <si>
     <t>ro2</t>
   </si>
   <si>
@@ -763,9 +748,6 @@
     <t>ro3</t>
   </si>
   <si>
-    <t>remove</t>
-  </si>
-  <si>
     <t>10.0.0.4</t>
   </si>
   <si>
@@ -785,6 +767,30 @@
   </si>
   <si>
     <t>10.0.10.6</t>
+  </si>
+  <si>
+    <t>10.0.0.143</t>
+  </si>
+  <si>
+    <t>10.0.0.255</t>
+  </si>
+  <si>
+    <t>10.0.0.144</t>
+  </si>
+  <si>
+    <t>1001 0000</t>
+  </si>
+  <si>
+    <t>10.0.0.145</t>
+  </si>
+  <si>
+    <t>10.0.0.159</t>
+  </si>
+  <si>
+    <t>10.0.0.158</t>
+  </si>
+  <si>
+    <t>10.0.0.144/28</t>
   </si>
 </sst>
 </file>
@@ -815,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,12 +855,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -916,7 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,7 +1326,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" activeCellId="1" sqref="A2 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA0E07-5EEB-4914-9BA9-F0171977E10C}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B41"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,6 +2762,12 @@
       <c r="D3" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
       <c r="I3" t="s">
         <v>103</v>
       </c>
@@ -2775,7 +2780,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
       </c>
       <c r="I4" t="s">
         <v>104</v>
@@ -2791,6 +2802,12 @@
       <c r="D5" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2800,7 +2817,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2870,7 +2890,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -2944,7 +2964,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -2990,7 +3010,7 @@
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3004,7 +3024,7 @@
         <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3021,12 +3041,12 @@
         <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -3060,8 +3080,11 @@
       <c r="D39" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3075,12 +3098,12 @@
         <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -3089,7 +3112,7 @@
         <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,7 +3120,7 @@
         <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3107,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88FA05-E526-48A0-BB42-73DD73343D06}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3131,7 +3154,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -3184,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -3195,10 +3218,10 @@
         <v>151</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,10 +3229,10 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -3220,116 +3243,119 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>186</v>
+      <c r="C11" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>159</v>
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>159</v>
+        <v>181</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3337,10 +3363,10 @@
         <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -3357,13 +3383,13 @@
         <v>155</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3371,16 +3397,16 @@
         <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
         <v>127</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,16 +3414,16 @@
         <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3405,21 +3431,12 @@
         <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>96</v>
@@ -3427,23 +3444,15 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gkid-my.sharepoint.com/personal/jason_wong_trainocate_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="8_{FCCE7E95-706C-472E-80BB-214B6E5307FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A5501E-57C3-4F0B-948A-867871F911BF}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="8_{FCCE7E95-706C-472E-80BB-214B6E5307FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C9D949E-5AC4-4C19-8A18-9C9796AC9521}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="15" windowWidth="14505" windowHeight="10905" firstSheet="4" activeTab="7" xr2:uid="{0A7A325A-D5D9-45C8-A104-2F0C1C36DB53}"/>
+    <workbookView xWindow="28665" yWindow="75" windowWidth="12915" windowHeight="11010" firstSheet="5" activeTab="7" xr2:uid="{0A7A325A-D5D9-45C8-A104-2F0C1C36DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="219">
   <si>
     <t>2^7</t>
   </si>
@@ -791,6 +791,75 @@
   </si>
   <si>
     <t>10.0.0.144/28</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>g0/2</t>
+  </si>
+  <si>
+    <t>200.0.0.2</t>
+  </si>
+  <si>
+    <t>200.0.0.1</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>201.0.0.2</t>
+  </si>
+  <si>
+    <t>Server_A</t>
+  </si>
+  <si>
+    <t>201.0.0.201</t>
+  </si>
+  <si>
+    <t>Server_B</t>
+  </si>
+  <si>
+    <t>201.0.0.202</t>
+  </si>
+  <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
+    <t>vlan 20</t>
+  </si>
+  <si>
+    <t>vlan 30</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>10.0.10.0/24</t>
+  </si>
+  <si>
+    <t>10.0.20.0/24</t>
+  </si>
+  <si>
+    <t>10.0.30.0/24</t>
+  </si>
+  <si>
+    <t>Boss IP</t>
+  </si>
+  <si>
+    <t>10.0.0.201</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>10.0.0.202</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A831FC6A-76A8-4A20-A8A3-A0D886BAA282}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="A2 D2"/>
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,10 +3199,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88FA05-E526-48A0-BB42-73DD73343D06}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3153,7 +3222,7 @@
       <c r="C1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3167,7 +3236,7 @@
       <c r="C2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3181,7 +3250,7 @@
       <c r="C3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3195,7 +3264,7 @@
       <c r="C4" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3209,251 +3278,430 @@
       <c r="C5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>158</v>
+        <v>212</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
+        <v>213</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>158</v>
+        <v>177</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>153</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
+        <v>202</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
+        <v>199</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
         <v>154</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D37" s="10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
